--- a/biology/Botanique/Carlemanniaceae/Carlemanniaceae.xlsx
+++ b/biology/Botanique/Carlemanniaceae/Carlemanniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Carlemanniacées est une famille de plantes dicotylédones. 
 Ce sont des arbustes ou des plantes herbacées pérennes des régions tropicales d'Asie du Sud-Est.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Carlemannia, nommée par George Bentham en hommage au botaniste britannique Charles Morgan Lemann (en) (1806–1852), qui étudia la flore de Gibraltar et de l'île de Madère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Carlemannia, nommée par George Bentham en hommage au botaniste britannique Charles Morgan Lemann (en) (1806–1852), qui étudia la flore de Gibraltar et de l'île de Madère.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2], ces végétaux étaient classés dans la famille des Caprifoliaceae.
-En classification phylogénétique APG (1998)[3] elle était placée à la base des Euasterids II.
-La classification phylogénétique APG III (2009)[4] la situe dans l'ordre des Lamiales, et y reconnait 3 à 5 espèces réparties en 2 genres : Carlemannia (en) et Silvianthus (en).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), ces végétaux étaient classés dans la famille des Caprifoliaceae.
+En classification phylogénétique APG (1998) elle était placée à la base des Euasterids II.
+La classification phylogénétique APG III (2009) la situe dans l'ordre des Lamiales, et y reconnait 3 à 5 espèces réparties en 2 genres : Carlemannia (en) et Silvianthus (en).
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (6 Jul 2010)[5], NCBI  (6 Jul 2010)[6] et DELTA Angio           (6 Jul 2010)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (6 Jul 2010), NCBI  (6 Jul 2010) et DELTA Angio           (6 Jul 2010) :
 Carlemannia (en) Benth.
 Silvianthus (en) Hook.f.</t>
         </is>
@@ -608,9 +626,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (6 Jul 2010)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (6 Jul 2010) :
 genre Carlemannia
 Carlemannia griffithii
 Carlemannia tetragona
